--- a/PK_MUV/Tech/BOM.xlsx
+++ b/PK_MUV/Tech/BOM.xlsx
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,8 +719,8 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="83.33203125" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
@@ -733,7 +733,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B3">
@@ -742,7 +742,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B4">
@@ -1645,7 +1645,7 @@
       <c r="E38" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G38" s="2">

--- a/PK_MUV/Tech/BOM.xlsx
+++ b/PK_MUV/Tech/BOM.xlsx
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +843,7 @@
         <v>4.95</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J34" si="1">I8*D8</f>
+        <f t="shared" ref="J8:J10" si="1">I8*D8</f>
         <v>4.95</v>
       </c>
       <c r="K8" t="s">
@@ -1300,7 +1300,7 @@
         <f t="shared" si="2"/>
         <v>0.32600000000000001</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
         <f t="shared" si="2"/>
         <v>0.48799999999999999</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       <c r="H33">
         <v>10</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1812,6 +1812,9 @@
     <hyperlink ref="K34" r:id="rId1"/>
     <hyperlink ref="K18" r:id="rId2"/>
     <hyperlink ref="K17" r:id="rId3"/>
+    <hyperlink ref="K28" r:id="rId4"/>
+    <hyperlink ref="K33" r:id="rId5"/>
+    <hyperlink ref="K23" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PK_MUV/Tech/BOM.xlsx
+++ b/PK_MUV/Tech/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>Description</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>READ THE BOM NOTE in the repo</t>
+  </si>
+  <si>
+    <t>WS2812B</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,8 +740,8 @@
         <v>72</v>
       </c>
       <c r="B3">
-        <f>SUM(I7:I43)</f>
-        <v>108.11700000000002</v>
+        <f>SUM(I7:I42)</f>
+        <v>107.76200000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -746,8 +749,8 @@
         <v>102</v>
       </c>
       <c r="B4">
-        <f>SUM(J7:J44)</f>
-        <v>43.259700000000009</v>
+        <f>SUM(J7:J43)</f>
+        <v>43.22420000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -951,7 +954,7 @@
         <v>4.0200000000000005</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J30" si="2">G12*D12</f>
+        <f t="shared" ref="J12:J29" si="2">G12*D12</f>
         <v>0.40200000000000002</v>
       </c>
       <c r="K12" t="s">
@@ -1456,222 +1459,223 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1469963</v>
-      </c>
-      <c r="G30" s="2">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="H30" s="5">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2356217</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H32">
         <v>10</v>
       </c>
-      <c r="I30" s="5">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>32</v>
+      <c r="K32" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="2">
-        <v>2356217</v>
+        <v>2402405</v>
       </c>
       <c r="G33" s="2">
-        <v>0.65400000000000003</v>
+        <v>1.26</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33" si="8">H33*G33</f>
+        <v>6.3</v>
+      </c>
+      <c r="J33">
+        <f>G33*D33</f>
+        <v>2.52</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2402405</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1.26</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ref="I34" si="8">H34*G34</f>
-        <v>6.3</v>
-      </c>
-      <c r="J34">
-        <f>G34*D34</f>
-        <v>2.52</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35" si="9">H35*G35</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="10">G35*D35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1123875</v>
+      </c>
+      <c r="G36">
+        <v>0.64500000000000002</v>
+      </c>
       <c r="H36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36" si="9">H36*G36</f>
-        <v>0</v>
+        <f t="shared" ref="I36:I39" si="11">H36*G36</f>
+        <v>3.2250000000000001</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36" si="10">G36*D36</f>
-        <v>0</v>
+        <f t="shared" ref="J36:J39" si="12">G36*D36</f>
+        <v>0.64500000000000002</v>
       </c>
       <c r="K36" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1123875</v>
-      </c>
-      <c r="G37">
-        <v>0.64500000000000002</v>
+        <v>79</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2.25</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37:I40" si="11">H37*G37</f>
-        <v>3.2250000000000001</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="J37">
-        <f t="shared" ref="J37:J40" si="12">G37*D37</f>
-        <v>0.64500000000000002</v>
+        <f t="shared" si="12"/>
+        <v>2.25</v>
       </c>
       <c r="K37" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>9492615</v>
       </c>
       <c r="G38" s="2">
-        <v>2.25</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I38">
         <f t="shared" si="11"/>
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="J38">
         <f t="shared" si="12"/>
-        <v>2.25</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="K38" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1680,140 +1684,106 @@
         <v>3</v>
       </c>
       <c r="F39" s="2">
-        <v>9492615</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0.46700000000000003</v>
+        <v>1190779</v>
+      </c>
+      <c r="G39">
+        <v>1.21</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I39">
         <f t="shared" si="11"/>
-        <v>4.67</v>
+        <v>6.05</v>
       </c>
       <c r="J39">
         <f t="shared" si="12"/>
-        <v>0.46700000000000003</v>
+        <v>1.21</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1190779</v>
-      </c>
-      <c r="G40">
-        <v>1.21</v>
-      </c>
-      <c r="H40">
-        <v>5</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="11"/>
-        <v>6.05</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="12"/>
-        <v>1.21</v>
-      </c>
-      <c r="K40" t="s">
-        <v>96</v>
+      <c r="A40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>83</v>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2">
+        <v>297318</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:I42" si="13">H41*G41</f>
+        <v>2.34</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:J42" si="14">G41*D41</f>
+        <v>2.34</v>
+      </c>
+      <c r="K41" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="2">
-        <v>297318</v>
+        <v>2886085</v>
       </c>
       <c r="G42" s="2">
-        <v>2.34</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <f t="shared" ref="I42:I43" si="13">H42*G42</f>
-        <v>2.34</v>
-      </c>
-      <c r="J42">
-        <f t="shared" ref="J42:J43" si="14">G42*D42</f>
-        <v>2.34</v>
-      </c>
-      <c r="K42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2">
-        <v>2886085</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43">
         <f t="shared" si="13"/>
         <v>1.9550000000000001</v>
       </c>
-      <c r="J43">
+      <c r="J42">
         <f t="shared" si="14"/>
         <v>0.78200000000000003</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K42" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K34" r:id="rId1"/>
+    <hyperlink ref="K33" r:id="rId1"/>
     <hyperlink ref="K18" r:id="rId2"/>
     <hyperlink ref="K17" r:id="rId3"/>
     <hyperlink ref="K28" r:id="rId4"/>
-    <hyperlink ref="K33" r:id="rId5"/>
+    <hyperlink ref="K32" r:id="rId5"/>
     <hyperlink ref="K23" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PK_MUV/Tech/BOM.xlsx
+++ b/PK_MUV/Tech/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>Description</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>C1=C2</t>
-  </si>
-  <si>
-    <t>WS2812 Led, smd (Alternative: Led WS2812B or SK6812)</t>
   </si>
   <si>
     <t>U1=U2</t>
@@ -342,14 +339,20 @@
     <t>READ THE BOM NOTE in the repo</t>
   </si>
   <si>
-    <t>WS2812B</t>
+    <t>https://opencircuit.nl/Product/10707/WS2812B-RGB-led-10-stuks</t>
+  </si>
+  <si>
+    <t>Opencircuit</t>
+  </si>
+  <si>
+    <t>WS2812B RGB Led, Neopixel, package 5050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +396,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="PT Serif"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -416,7 +424,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,6 +439,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -712,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,25 +741,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <f>SUM(I7:I42)</f>
-        <v>107.76200000000001</v>
+        <v>111.66200000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <f>SUM(J7:J43)</f>
-        <v>43.22420000000001</v>
+        <v>43.809200000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -776,10 +785,10 @@
         <v>6</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>2</v>
@@ -796,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7">
         <v>19.95</v>
@@ -816,7 +825,7 @@
         <v>19.95</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -830,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2">
         <v>10230</v>
@@ -850,7 +859,7 @@
         <v>4.95</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -890,7 +899,7 @@
         <v>2.15</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1196,7 +1205,7 @@
         <v>0.10649999999999998</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1278,7 +1287,7 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1304,7 +1313,7 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1312,7 +1321,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1338,7 +1347,7 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1372,17 +1381,43 @@
         <v>3.5499999999999997E-2</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="8">
+        <v>10707</v>
+      </c>
+      <c r="G26" s="2">
+        <f>1.95/10</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K26" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1394,7 +1429,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1420,7 +1455,7 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1428,7 +1463,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1454,18 +1489,42 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30">
         <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="8">
+        <v>10707</v>
+      </c>
+      <c r="G30" s="2">
+        <f>1.95/10</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30" si="8">H30*G30</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30" si="9">G30*D30</f>
+        <v>0.39</v>
+      </c>
+      <c r="K30" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1478,7 +1537,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1496,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1522,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33" si="8">H33*G33</f>
+        <f t="shared" ref="I33" si="10">H33*G33</f>
         <v>6.3</v>
       </c>
       <c r="J33">
@@ -1535,45 +1594,45 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="2"/>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35" si="9">H35*G35</f>
+        <f t="shared" ref="I35" si="11">H35*G35</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35" si="10">G35*D35</f>
+        <f t="shared" ref="J35" si="12">G35*D35</f>
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1591,32 +1650,32 @@
         <v>5</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I39" si="11">H36*G36</f>
+        <f t="shared" ref="I36:I39" si="13">H36*G36</f>
         <v>3.2250000000000001</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J39" si="12">G36*D36</f>
+        <f t="shared" ref="J36:J39" si="14">G36*D36</f>
         <v>0.64500000000000002</v>
       </c>
       <c r="K36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>78</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>79</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="2">
         <v>2.25</v>
@@ -1625,23 +1684,23 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
       <c r="J37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
       <c r="K37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1659,23 +1718,23 @@
         <v>10</v>
       </c>
       <c r="I38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.67</v>
       </c>
       <c r="J38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.46700000000000003</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1693,28 +1752,28 @@
         <v>5</v>
       </c>
       <c r="I39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.05</v>
       </c>
       <c r="J39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.21</v>
       </c>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1732,23 +1791,23 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:I42" si="13">H41*G41</f>
+        <f t="shared" ref="I41:I42" si="15">H41*G41</f>
         <v>2.34</v>
       </c>
       <c r="J41">
-        <f t="shared" ref="J41:J42" si="14">G41*D41</f>
+        <f t="shared" ref="J41:J42" si="16">G41*D41</f>
         <v>2.34</v>
       </c>
       <c r="K41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1766,15 +1825,15 @@
         <v>5</v>
       </c>
       <c r="I42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9550000000000001</v>
       </c>
       <c r="J42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.78200000000000003</v>
       </c>
       <c r="K42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/PK_MUV/Tech/BOM.xlsx
+++ b/PK_MUV/Tech/BOM.xlsx
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
